--- a/assets/uploads/contactDetail (16)2.xlsx
+++ b/assets/uploads/contactDetail (16)2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts" r:id="rId3" sheetId="1"/>
+    <sheet r:id="rId1" sheetId="1" name="contacts"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Title</t>
   </si>
@@ -56,7 +55,7 @@
     <t>Miss</t>
   </si>
   <si>
-    <t>Lini</t>
+    <t>rohan</t>
   </si>
   <si>
     <t>S</t>
@@ -77,13 +76,13 @@
     <t>M G Street</t>
   </si>
   <si>
-    <t>lini@gmail.com</t>
-  </si>
-  <si>
-    <t>Reading ,Drawing ,</t>
-  </si>
-  <si>
-    <t>Maya</t>
+    <t>tintu@gmail.com</t>
+  </si>
+  <si>
+    <t>Reading ,Drawing</t>
+  </si>
+  <si>
+    <t>mini</t>
   </si>
   <si>
     <t>2024-06-20</t>
@@ -95,27 +94,33 @@
     <t>dfgdb</t>
   </si>
   <si>
-    <t>dfbdf</t>
+    <t>abcd</t>
   </si>
   <si>
     <t>maya@gmail.com</t>
   </si>
   <si>
-    <t>Reading ,Writing ,</t>
+    <t>Reading ,Writing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,10 +128,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -138,149 +150,457 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="45.421875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="17.125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="17.76953125" customWidth="true" bestFit="true"/>
-    <col min="1" max="1" width="5.14453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.2421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.61328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.7421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.68359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="45.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>695004</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9323415243</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="n">
-        <v>695004.0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.323415243E9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="2">
+        <v>695004</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="n">
-        <v>695004.0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" s="2">
+        <v>919523415000</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.19523415E11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>